--- a/src/ontology/immunology/TLRs ligands.xlsx
+++ b/src/ontology/immunology/TLRs ligands.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="-80" windowWidth="21600" windowHeight="15260" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -650,7 +650,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
@@ -965,7 +964,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
